--- a/biology/Histoire de la zoologie et de la botanique/Ernst_Friedrich_von_Schlotheim/Ernst_Friedrich_von_Schlotheim.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Ernst_Friedrich_von_Schlotheim/Ernst_Friedrich_von_Schlotheim.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ernst Friedrich von Schlotheim est un paléontologue allemand, né le 2 avril 1764 à Allmenhausen et mort le 28 mars 1832 (à 67 ans) à Gotha.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est conseiller privé et président de tribunal de Gotha. Il est l’auteur de Beschreibungmerkwürdiger Kräuterabdrücke und Pflanzenversteinerungen (1804), Ein Beitrag zur Flora der Vorwelt (1804), Die Petrefakterkunde (1820).
 C’est le premier paléontologue à utiliser un système binominal pour désigner les fossiles en Allemagne.
@@ -543,7 +557,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Beschreibung merkwürdiger Kräuter-Abdrücke und Pflanzen-Versteinerungen (Gotha, 1804)
 Beyträge zur Naturgeschichte der Versteinerungen in geognostischer Hinsicht (München, 1817).
